--- a/CashFlow/NTAP_cashflow.xlsx
+++ b/CashFlow/NTAP_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>503000000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>510000000.0</v>
+        <v>-5000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>399000000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>278000000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>102000000.0</v>
+        <v>-13000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-25000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>1525000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>1570000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-27000000.0</v>
+        <v>1165000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-275000000.0</v>
+        <v>492000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-189000000.0</v>
+        <v>193000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-111000000.0</v>
